--- a/Plantillas/primers IDT pedido plantilla.xlsx
+++ b/Plantillas/primers IDT pedido plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta.torrecilla\Desktop\IMDEA-2\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD168F0-0131-400C-91D4-1FBDF71C0DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D2B317-EB96-4E6F-AB2F-9AA75BD898B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -32,54 +32,6 @@
   </si>
   <si>
     <t>Purification</t>
-  </si>
-  <si>
-    <t>mSDHD_fw1</t>
-  </si>
-  <si>
-    <t>CCCctcgagCCTGGGTGCAGCACTTTGAT</t>
-  </si>
-  <si>
-    <t>mSDHD_rv1</t>
-  </si>
-  <si>
-    <t>CCCgcggccgcCTCATTAACAACTCCCACGGT</t>
-  </si>
-  <si>
-    <t>mSDHD_fw2</t>
-  </si>
-  <si>
-    <t>CCCctcgagCCTTGCCTCTGCTTTACCAA</t>
-  </si>
-  <si>
-    <t>25nm</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>hSDHC_fw1</t>
-  </si>
-  <si>
-    <t>CCCctcgagGGAGGCTCCCAGCATCATC</t>
-  </si>
-  <si>
-    <t>hSDHC_rv1</t>
-  </si>
-  <si>
-    <t>CCCgcggccgcCCATTCTTGCTATGGCTGCC</t>
-  </si>
-  <si>
-    <t>hSDHC_fw2</t>
-  </si>
-  <si>
-    <t>CCCctcgagGCCCACAGCTTGCCTACT</t>
-  </si>
-  <si>
-    <t>hSDHC_rv2</t>
-  </si>
-  <si>
-    <t>CCCgcggccgcGGGCAGAACCTCAAAGAACC</t>
   </si>
 </sst>
 </file>
@@ -103,18 +55,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,7 +78,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +396,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,102 +422,46 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
